--- a/demo/template/data.xlsx
+++ b/demo/template/data.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CD228A-AEBC-4785-967C-6500DA0A22F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA24EDF-8518-42B8-BBD6-46881B059D84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,12 +21,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传参1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传参2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,6 +89,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -61,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -342,15 +406,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9857997-83E3-4D86-AC6D-0CBA51ED64E8}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>200000000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>200000000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>200000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>200000002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>200000000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>200000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>200000002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
